--- a/Code/Results/Cases/Case_9_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02087936300083</v>
+        <v>1.010070860455016</v>
       </c>
       <c r="C2">
-        <v>0.1886086822414654</v>
+        <v>0.1958280643374479</v>
       </c>
       <c r="D2">
-        <v>0.2629818016344245</v>
+        <v>0.2710166363855393</v>
       </c>
       <c r="E2">
-        <v>0.1999959896473555</v>
+        <v>0.2029278499115676</v>
       </c>
       <c r="F2">
-        <v>0.6733318738651803</v>
+        <v>0.6415651307028511</v>
       </c>
       <c r="G2">
-        <v>0.3578966634910969</v>
+        <v>0.316291299308574</v>
       </c>
       <c r="H2">
-        <v>0.0004928563886266168</v>
+        <v>0.0003519998746701614</v>
       </c>
       <c r="I2">
-        <v>0.002689284305873674</v>
+        <v>0.001840122236370867</v>
       </c>
       <c r="J2">
-        <v>0.3298985209222423</v>
+        <v>0.3390562621959319</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2062913876026187</v>
+        <v>0.142885307599407</v>
       </c>
       <c r="M2">
-        <v>1.102311798003001</v>
+        <v>0.07775119425248</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2067394077604732</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.124848186944604</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.396375755800733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.304912256622274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8896352780717507</v>
+        <v>0.883141906263063</v>
       </c>
       <c r="C3">
-        <v>0.1712143188131137</v>
+        <v>0.1725115794150582</v>
       </c>
       <c r="D3">
-        <v>0.2321658269835325</v>
+        <v>0.2388584613272968</v>
       </c>
       <c r="E3">
-        <v>0.1775393488829522</v>
+        <v>0.1802549992671345</v>
       </c>
       <c r="F3">
-        <v>0.6503828508350793</v>
+        <v>0.622416078961713</v>
       </c>
       <c r="G3">
-        <v>0.3527573062890923</v>
+        <v>0.3149100844545316</v>
       </c>
       <c r="H3">
-        <v>0.001236763922620288</v>
+        <v>0.0009736959951904822</v>
       </c>
       <c r="I3">
-        <v>0.003870324574292816</v>
+        <v>0.002635993665304426</v>
       </c>
       <c r="J3">
-        <v>0.3318409862960721</v>
+        <v>0.3396047768219645</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.183940650478192</v>
+        <v>0.1484333220328917</v>
       </c>
       <c r="M3">
-        <v>0.9645843002927563</v>
+        <v>0.07933255476173517</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.184774084707179</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9821173509839127</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.389267412758358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.305561089562303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.808743598016207</v>
+        <v>0.8047925351357605</v>
       </c>
       <c r="C4">
-        <v>0.1606948950921918</v>
+        <v>0.158481346016174</v>
       </c>
       <c r="D4">
-        <v>0.2133163347490097</v>
+        <v>0.2192124160269771</v>
       </c>
       <c r="E4">
-        <v>0.1637585478487367</v>
+        <v>0.1663464159386301</v>
       </c>
       <c r="F4">
-        <v>0.6367045320923026</v>
+        <v>0.6109635376712248</v>
       </c>
       <c r="G4">
-        <v>0.3499385809902549</v>
+        <v>0.3144045670462603</v>
       </c>
       <c r="H4">
-        <v>0.001886731201059866</v>
+        <v>0.001532027008495751</v>
       </c>
       <c r="I4">
-        <v>0.00478299397874693</v>
+        <v>0.003280084209901446</v>
       </c>
       <c r="J4">
-        <v>0.3332705988196096</v>
+        <v>0.340017358800317</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1701865920799364</v>
+        <v>0.1520025557378677</v>
       </c>
       <c r="M4">
-        <v>0.8800410348973458</v>
+        <v>0.08078339501239284</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1712505627479857</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8945661600791084</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.386105861285884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.306874708495101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7752894443204355</v>
+        <v>0.7723638949234726</v>
       </c>
       <c r="C5">
-        <v>0.1569225655303512</v>
+        <v>0.1533266324790787</v>
       </c>
       <c r="D5">
-        <v>0.2057990731408097</v>
+        <v>0.2113736924904543</v>
       </c>
       <c r="E5">
-        <v>0.1581768669775236</v>
+        <v>0.1607129458060115</v>
       </c>
       <c r="F5">
-        <v>0.630683302261815</v>
+        <v>0.605853214462833</v>
       </c>
       <c r="G5">
-        <v>0.3484390908456518</v>
+        <v>0.3138837624175608</v>
       </c>
       <c r="H5">
-        <v>0.002199278051393305</v>
+        <v>0.001803085783884772</v>
       </c>
       <c r="I5">
-        <v>0.005278139957159311</v>
+        <v>0.003669599400412338</v>
       </c>
       <c r="J5">
-        <v>0.333682566927834</v>
+        <v>0.3399822727940673</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1645461402360553</v>
+        <v>0.1533283376911356</v>
       </c>
       <c r="M5">
-        <v>0.8460694737199788</v>
+        <v>0.08142966034719734</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1657036132494341</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.859372939325425</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.38371452118065</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.30633103869252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7692272445889046</v>
+        <v>0.7664895116906507</v>
       </c>
       <c r="C6">
-        <v>0.156884160762786</v>
+        <v>0.1530818918813139</v>
       </c>
       <c r="D6">
-        <v>0.2047330613973344</v>
+        <v>0.210249982502873</v>
       </c>
       <c r="E6">
-        <v>0.1572911819686844</v>
+        <v>0.1598174217109332</v>
       </c>
       <c r="F6">
-        <v>0.6290213291556555</v>
+        <v>0.6043782442167043</v>
       </c>
       <c r="G6">
-        <v>0.3476673047467145</v>
+        <v>0.3133177571568666</v>
       </c>
       <c r="H6">
-        <v>0.002255360044665644</v>
+        <v>0.001851847388154693</v>
       </c>
       <c r="I6">
-        <v>0.005465681408333367</v>
+        <v>0.003854771601847773</v>
       </c>
       <c r="J6">
-        <v>0.333475070163729</v>
+        <v>0.3397067317915159</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1635766106119192</v>
+        <v>0.1533450692026932</v>
       </c>
       <c r="M6">
-        <v>0.8410178006510307</v>
+        <v>0.0814644629258332</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1647506832425591</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8541036901245889</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.381631127737407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.304667009496569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8069162133274403</v>
+        <v>0.8030851383042261</v>
       </c>
       <c r="C7">
-        <v>0.1622471129723522</v>
+        <v>0.15996951291676</v>
       </c>
       <c r="D7">
-        <v>0.2137108598379029</v>
+        <v>0.2198615362178913</v>
       </c>
       <c r="E7">
-        <v>0.1637959971989957</v>
+        <v>0.166438527564658</v>
       </c>
       <c r="F7">
-        <v>0.6348002964290345</v>
+        <v>0.6082219579538233</v>
       </c>
       <c r="G7">
-        <v>0.3484788876841662</v>
+        <v>0.3150762362069628</v>
       </c>
       <c r="H7">
-        <v>0.001894232378432448</v>
+        <v>0.001540853553032129</v>
       </c>
       <c r="I7">
-        <v>0.00505372440062235</v>
+        <v>0.003593749982897521</v>
       </c>
       <c r="J7">
-        <v>0.3325151443985419</v>
+        <v>0.3359866788043675</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1700222570271919</v>
+        <v>0.1512802890616669</v>
       </c>
       <c r="M7">
-        <v>0.8811978146475781</v>
+        <v>0.08047422437967899</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1710389850792708</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8955454087279406</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.38142809047163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.300185040752922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9738478487287807</v>
+        <v>0.9648015858716406</v>
       </c>
       <c r="C8">
-        <v>0.1847222114200946</v>
+        <v>0.1896183345157993</v>
       </c>
       <c r="D8">
-        <v>0.2530005244902185</v>
+        <v>0.26146354624872</v>
       </c>
       <c r="E8">
-        <v>0.1924010531146649</v>
+        <v>0.1954518569016983</v>
       </c>
       <c r="F8">
-        <v>0.662929078857303</v>
+        <v>0.6294983069764584</v>
       </c>
       <c r="G8">
-        <v>0.3541594825449437</v>
+        <v>0.3207027720540339</v>
       </c>
       <c r="H8">
-        <v>0.000710632418214896</v>
+        <v>0.0005349834002894571</v>
       </c>
       <c r="I8">
-        <v>0.003373284352456096</v>
+        <v>0.002458530303456108</v>
       </c>
       <c r="J8">
-        <v>0.3295224865324684</v>
+        <v>0.327645458041907</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.198473634081985</v>
+        <v>0.1435643417556829</v>
       </c>
       <c r="M8">
-        <v>1.056973768910296</v>
+        <v>0.07749233686391932</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1988897362358841</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.077323054291782</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.387570185294138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.291575103565336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.301400637126733</v>
+        <v>1.280935633292103</v>
       </c>
       <c r="C9">
-        <v>0.2272842567071933</v>
+        <v>0.2474998062005795</v>
       </c>
       <c r="D9">
-        <v>0.3298172445241647</v>
+        <v>0.3420609589782657</v>
       </c>
       <c r="E9">
-        <v>0.2484210773810673</v>
+        <v>0.2520978904249773</v>
       </c>
       <c r="F9">
-        <v>0.7248238334871999</v>
+        <v>0.6803360430202545</v>
       </c>
       <c r="G9">
-        <v>0.3707025201370229</v>
+        <v>0.3296323725657544</v>
       </c>
       <c r="H9">
-        <v>1.670382968343986E-05</v>
+        <v>4.019413958111784E-05</v>
       </c>
       <c r="I9">
-        <v>0.001255866630202718</v>
+        <v>0.0010568189717306</v>
       </c>
       <c r="J9">
-        <v>0.3269482035319839</v>
+        <v>0.32476390187108</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2542503734517965</v>
+        <v>0.131277097431342</v>
       </c>
       <c r="M9">
-        <v>1.399228712694651</v>
+        <v>0.0763016926917679</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2536139473845935</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.432315774586101</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.41791121394418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.29855267669663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.53999052948248</v>
+        <v>1.511407132125072</v>
       </c>
       <c r="C10">
-        <v>0.2601760931686528</v>
+        <v>0.2910177050194562</v>
       </c>
       <c r="D10">
-        <v>0.3790999893877824</v>
+        <v>0.3955354160969478</v>
       </c>
       <c r="E10">
-        <v>0.2791147408872092</v>
+        <v>0.2835043790432934</v>
       </c>
       <c r="F10">
-        <v>0.7596490132176115</v>
+        <v>0.7023139028406078</v>
       </c>
       <c r="G10">
-        <v>0.3781366340894863</v>
+        <v>0.3444288637825395</v>
       </c>
       <c r="H10">
-        <v>0.0007568945549438766</v>
+        <v>0.0008177752693208085</v>
       </c>
       <c r="I10">
-        <v>0.0009257681802532503</v>
+        <v>0.001080296449302409</v>
       </c>
       <c r="J10">
-        <v>0.3229431548452126</v>
+        <v>0.3033075446849409</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2808718089231661</v>
+        <v>0.1214137808177149</v>
       </c>
       <c r="M10">
-        <v>1.651917266182664</v>
+        <v>0.07586410099053431</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2792108249635845</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.693232047416558</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.425732755176142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.277817003385081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.644344076347807</v>
+        <v>1.617364963177238</v>
       </c>
       <c r="C11">
-        <v>0.276192720580454</v>
+        <v>0.3049259339613002</v>
       </c>
       <c r="D11">
-        <v>0.3354081748050248</v>
+        <v>0.353283517541513</v>
       </c>
       <c r="E11">
-        <v>0.2076918255659876</v>
+        <v>0.2118747781816595</v>
       </c>
       <c r="F11">
-        <v>0.6710425337161823</v>
+        <v>0.6102266791068089</v>
       </c>
       <c r="G11">
-        <v>0.3297449906946568</v>
+        <v>0.3249340815056883</v>
       </c>
       <c r="H11">
-        <v>0.01924856203329384</v>
+        <v>0.01928255020846592</v>
       </c>
       <c r="I11">
-        <v>0.001430252592705017</v>
+        <v>0.001750814569511761</v>
       </c>
       <c r="J11">
-        <v>0.2948111108011204</v>
+        <v>0.2530390286856345</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1835495696199345</v>
+        <v>0.1097497353730219</v>
       </c>
       <c r="M11">
-        <v>1.766768416859634</v>
+        <v>0.06621233783273972</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1818134288259756</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.804934457583471</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.264404123702661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.110586160694353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.684417264810833</v>
+        <v>1.660413111006477</v>
       </c>
       <c r="C12">
-        <v>0.2801047684306184</v>
+        <v>0.3048013797481701</v>
       </c>
       <c r="D12">
-        <v>0.290000514368117</v>
+        <v>0.3070663676761711</v>
       </c>
       <c r="E12">
-        <v>0.1506098923830415</v>
+        <v>0.1542010927995001</v>
       </c>
       <c r="F12">
-        <v>0.5959491922094884</v>
+        <v>0.5384774964470154</v>
       </c>
       <c r="G12">
-        <v>0.2917963494390108</v>
+        <v>0.3000186635204187</v>
       </c>
       <c r="H12">
-        <v>0.05778924886853787</v>
+        <v>0.05781306569726041</v>
       </c>
       <c r="I12">
-        <v>0.001429930862046902</v>
+        <v>0.001758825911152506</v>
       </c>
       <c r="J12">
-        <v>0.2740017686336742</v>
+        <v>0.230990070786028</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1160434634680811</v>
+        <v>0.1038219795802933</v>
       </c>
       <c r="M12">
-        <v>1.807654446648314</v>
+        <v>0.05957026834358814</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1146884686453404</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.841701109911156</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.140431552159598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9960536015532853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.674767587533012</v>
+        <v>1.654904084129555</v>
       </c>
       <c r="C13">
-        <v>0.2774495159774659</v>
+        <v>0.2969370289388564</v>
       </c>
       <c r="D13">
-        <v>0.2417058652097097</v>
+        <v>0.2558543838180043</v>
       </c>
       <c r="E13">
-        <v>0.1016669125248306</v>
+        <v>0.1043622838728879</v>
       </c>
       <c r="F13">
-        <v>0.5241009359481268</v>
+        <v>0.4763659341557229</v>
       </c>
       <c r="G13">
-        <v>0.2573430242554693</v>
+        <v>0.2637391597213536</v>
       </c>
       <c r="H13">
-        <v>0.113355937301904</v>
+        <v>0.1133788861118745</v>
       </c>
       <c r="I13">
-        <v>0.00138810644854459</v>
+        <v>0.001686834519434299</v>
       </c>
       <c r="J13">
-        <v>0.256353049040591</v>
+        <v>0.2246932838034503</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.06753208219901552</v>
+        <v>0.1007323026738796</v>
       </c>
       <c r="M13">
-        <v>1.796155303345614</v>
+        <v>0.05461216262073343</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0668373181507782</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.825382996578355</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.030400037249962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9100215590035958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.645056984561933</v>
+        <v>1.628622853002497</v>
       </c>
       <c r="C14">
-        <v>0.2731476911225457</v>
+        <v>0.2884952798410154</v>
       </c>
       <c r="D14">
-        <v>0.2073973060582972</v>
+        <v>0.2188079416286257</v>
       </c>
       <c r="E14">
-        <v>0.07270639487411756</v>
+        <v>0.07474017978239189</v>
       </c>
       <c r="F14">
-        <v>0.4758353503273085</v>
+        <v>0.4369592928969652</v>
       </c>
       <c r="G14">
-        <v>0.2349687533679443</v>
+        <v>0.2349194982657536</v>
       </c>
       <c r="H14">
-        <v>0.1625732785493454</v>
+        <v>0.1625957792022774</v>
       </c>
       <c r="I14">
-        <v>0.001436425666090813</v>
+        <v>0.001707596017230806</v>
       </c>
       <c r="J14">
-        <v>0.2454611076989934</v>
+        <v>0.2252077099626213</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04504239494145601</v>
+        <v>0.09956432833169604</v>
       </c>
       <c r="M14">
-        <v>1.764901853935271</v>
+        <v>0.05193572570821381</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04483368939528098</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.790421479873743</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9600945912418695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8610676356724696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.6266109858432</v>
+        <v>1.611263685753102</v>
       </c>
       <c r="C15">
-        <v>0.271391468430096</v>
+        <v>0.2855140239534677</v>
       </c>
       <c r="D15">
-        <v>0.1983062440015146</v>
+        <v>0.2087371523984416</v>
       </c>
       <c r="E15">
-        <v>0.06619529912329014</v>
+        <v>0.06804676267471876</v>
       </c>
       <c r="F15">
-        <v>0.4638100262440261</v>
+        <v>0.4280545277346377</v>
       </c>
       <c r="G15">
-        <v>0.2296198765554394</v>
+        <v>0.2260543251552392</v>
       </c>
       <c r="H15">
-        <v>0.1750321918616606</v>
+        <v>0.1750537287699672</v>
       </c>
       <c r="I15">
-        <v>0.001564878077328302</v>
+        <v>0.001840015257948302</v>
       </c>
       <c r="J15">
-        <v>0.2431646530434506</v>
+        <v>0.227340999089872</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.04103314376324896</v>
+        <v>0.09958781573600062</v>
       </c>
       <c r="M15">
-        <v>1.74680311844682</v>
+        <v>0.05149489770163207</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04096266655396086</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.771262819252428</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9439109853687171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8522835244416456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.524799632879706</v>
+        <v>1.511597194394056</v>
       </c>
       <c r="C16">
-        <v>0.2586545604950174</v>
+        <v>0.2704872254241621</v>
       </c>
       <c r="D16">
-        <v>0.1885262863212489</v>
+        <v>0.1961318231578844</v>
       </c>
       <c r="E16">
-        <v>0.06445100340339138</v>
+        <v>0.0660313462009583</v>
       </c>
       <c r="F16">
-        <v>0.4632123926263461</v>
+        <v>0.435974471849363</v>
       </c>
       <c r="G16">
-        <v>0.2326256921724053</v>
+        <v>0.2130608741046842</v>
       </c>
       <c r="H16">
-        <v>0.1620735186920683</v>
+        <v>0.1620787963133097</v>
       </c>
       <c r="I16">
-        <v>0.001785208372020897</v>
+        <v>0.001965698274297267</v>
       </c>
       <c r="J16">
-        <v>0.2478807994492342</v>
+        <v>0.2486520586973988</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.04090703606093271</v>
+        <v>0.1029759713169787</v>
       </c>
       <c r="M16">
-        <v>1.641024174426008</v>
+        <v>0.05380293927465285</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04112628779826366</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.664117971632635</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9599725699847994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8874820769795377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.462606203033118</v>
+        <v>1.449313003250808</v>
       </c>
       <c r="C17">
-        <v>0.2512799595970847</v>
+        <v>0.2633734349673489</v>
       </c>
       <c r="D17">
-        <v>0.1988047017671022</v>
+        <v>0.2058020464242674</v>
       </c>
       <c r="E17">
-        <v>0.0773694691444291</v>
+        <v>0.07903421954935297</v>
       </c>
       <c r="F17">
-        <v>0.4878456684152255</v>
+        <v>0.46222843581738</v>
       </c>
       <c r="G17">
-        <v>0.2465880355664467</v>
+        <v>0.2193984895180208</v>
       </c>
       <c r="H17">
-        <v>0.1241968252748649</v>
+        <v>0.1241865847686228</v>
       </c>
       <c r="I17">
-        <v>0.001971630519332912</v>
+        <v>0.002091025129616675</v>
       </c>
       <c r="J17">
-        <v>0.2572217864004429</v>
+        <v>0.2653693335991463</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.05070594391440153</v>
+        <v>0.1065626144154637</v>
       </c>
       <c r="M17">
-        <v>1.57677068613782</v>
+        <v>0.05678387119800199</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05097292144426291</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.600584417963574</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.009024292874642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9395069319614038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.428537702566643</v>
+        <v>1.413125083111424</v>
       </c>
       <c r="C18">
-        <v>0.2462076336907018</v>
+        <v>0.2609069411768132</v>
       </c>
       <c r="D18">
-        <v>0.2287121915229164</v>
+        <v>0.2364739735428572</v>
       </c>
       <c r="E18">
-        <v>0.1093419266877582</v>
+        <v>0.1113601063816212</v>
       </c>
       <c r="F18">
-        <v>0.5405012634500324</v>
+        <v>0.5120707247905685</v>
       </c>
       <c r="G18">
-        <v>0.2736693320421821</v>
+        <v>0.2405096230949511</v>
       </c>
       <c r="H18">
-        <v>0.07134937666489094</v>
+        <v>0.07133858512145963</v>
       </c>
       <c r="I18">
-        <v>0.001800229864120872</v>
+        <v>0.001848003266418985</v>
       </c>
       <c r="J18">
-        <v>0.2725966231023733</v>
+        <v>0.2828571638819568</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.0801574117288375</v>
+        <v>0.1113782580403821</v>
       </c>
       <c r="M18">
-        <v>1.539311911339894</v>
+        <v>0.06118681050249286</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08029212367348393</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.56596244109079</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.098580834670813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.02138883334284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.41680632461123</v>
+        <v>1.397917480306745</v>
       </c>
       <c r="C19">
-        <v>0.2466674324037683</v>
+        <v>0.2658617445804481</v>
       </c>
       <c r="D19">
-        <v>0.2755899084946805</v>
+        <v>0.2851046763208558</v>
       </c>
       <c r="E19">
-        <v>0.162208287267017</v>
+        <v>0.164814833962609</v>
       </c>
       <c r="F19">
-        <v>0.6132369637886654</v>
+        <v>0.5788855597838491</v>
       </c>
       <c r="G19">
-        <v>0.3093869822383937</v>
+        <v>0.2704991300961339</v>
       </c>
       <c r="H19">
-        <v>0.02616102469479387</v>
+        <v>0.02617010094199657</v>
       </c>
       <c r="I19">
-        <v>0.001885946810886274</v>
+        <v>0.001974706784674929</v>
       </c>
       <c r="J19">
-        <v>0.2915287616363571</v>
+        <v>0.3006236040122658</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1383041584427289</v>
+        <v>0.1168073212117093</v>
       </c>
       <c r="M19">
-        <v>1.529297378955221</v>
+        <v>0.06644973058725157</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1381220078065937</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.560234508448389</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.213946578800048</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.121769401395255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.472975676843816</v>
+        <v>1.446598911482823</v>
       </c>
       <c r="C20">
-        <v>0.2566956243793328</v>
+        <v>0.2855012422709819</v>
       </c>
       <c r="D20">
-        <v>0.36736409605831</v>
+        <v>0.3816406068357878</v>
       </c>
       <c r="E20">
-        <v>0.2709563873329657</v>
+        <v>0.2749236748837447</v>
       </c>
       <c r="F20">
-        <v>0.7442614069243092</v>
+        <v>0.6941435599286194</v>
       </c>
       <c r="G20">
-        <v>0.3714334174537797</v>
+        <v>0.3287960039810471</v>
       </c>
       <c r="H20">
-        <v>0.0004636210872868141</v>
+        <v>0.0005254632590507846</v>
       </c>
       <c r="I20">
-        <v>0.001732659353647747</v>
+        <v>0.001962808436643648</v>
       </c>
       <c r="J20">
-        <v>0.3215030786075062</v>
+        <v>0.3171672173585449</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2730114451039043</v>
+        <v>0.1232785900253823</v>
       </c>
       <c r="M20">
-        <v>1.590691482311342</v>
+        <v>0.07517742069753197</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2718156846652988</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.630133265129018</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.408391589675588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.277693568227434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.656970883721755</v>
+        <v>1.624325965024411</v>
       </c>
       <c r="C21">
-        <v>0.2815922898270884</v>
+        <v>0.3175584895534769</v>
       </c>
       <c r="D21">
-        <v>0.4173538117107114</v>
+        <v>0.4409183726438357</v>
       </c>
       <c r="E21">
-        <v>0.3110688068825738</v>
+        <v>0.3169856584143673</v>
       </c>
       <c r="F21">
-        <v>0.7919271160967014</v>
+        <v>0.7121772936006892</v>
       </c>
       <c r="G21">
-        <v>0.3880946364461479</v>
+        <v>0.391357701554071</v>
       </c>
       <c r="H21">
-        <v>0.001263382833047499</v>
+        <v>0.001292232030848384</v>
       </c>
       <c r="I21">
-        <v>0.001677960912084941</v>
+        <v>0.002079008705048402</v>
       </c>
       <c r="J21">
-        <v>0.3240885305358674</v>
+        <v>0.2586344210494644</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3156502136276487</v>
+        <v>0.1156856600857559</v>
       </c>
       <c r="M21">
-        <v>1.784429553175187</v>
+        <v>0.07455945109488127</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3125518600868133</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.828931262322669</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.4494660342244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.249262834769851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.778844662813896</v>
+        <v>1.742279022086677</v>
       </c>
       <c r="C22">
-        <v>0.2957940769497611</v>
+        <v>0.3358438825332541</v>
       </c>
       <c r="D22">
-        <v>0.4454642253580232</v>
+        <v>0.4755704039460795</v>
       </c>
       <c r="E22">
-        <v>0.3317502706990112</v>
+        <v>0.3390320342662747</v>
       </c>
       <c r="F22">
-        <v>0.8197478279051893</v>
+        <v>0.7193436004968135</v>
       </c>
       <c r="G22">
-        <v>0.3981886893368909</v>
+        <v>0.4389875467228279</v>
       </c>
       <c r="H22">
-        <v>0.002089031564868282</v>
+        <v>0.002057490319921973</v>
       </c>
       <c r="I22">
-        <v>0.001571052172394616</v>
+        <v>0.001956252033773254</v>
       </c>
       <c r="J22">
-        <v>0.325440109279711</v>
+        <v>0.2273032178446925</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3363798483261178</v>
+        <v>0.1109228525899439</v>
       </c>
       <c r="M22">
-        <v>1.908994423126501</v>
+        <v>0.07420718341622923</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3319816815313601</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.956355219400507</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.473908658416264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.225447575932051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.71549340793112</v>
+        <v>1.680799181959145</v>
       </c>
       <c r="C23">
-        <v>0.2861930254125582</v>
+        <v>0.324198134583952</v>
       </c>
       <c r="D23">
-        <v>0.4298483281240522</v>
+        <v>0.4556714174015326</v>
       </c>
       <c r="E23">
-        <v>0.3205678982935751</v>
+        <v>0.3269465569055043</v>
       </c>
       <c r="F23">
-        <v>0.8069539651738893</v>
+        <v>0.7198471749733741</v>
       </c>
       <c r="G23">
-        <v>0.3944057795396532</v>
+        <v>0.4085482671222707</v>
       </c>
       <c r="H23">
-        <v>0.001627243534906953</v>
+        <v>0.001635072564169171</v>
       </c>
       <c r="I23">
-        <v>0.001303405107316635</v>
+        <v>0.00164232516446372</v>
       </c>
       <c r="J23">
-        <v>0.3255488778293767</v>
+        <v>0.2482956537646324</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3254164287698558</v>
+        <v>0.1140059355925143</v>
       </c>
       <c r="M23">
-        <v>1.840504395135895</v>
+        <v>0.07517541706930686</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3218418560001908</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.886699509989938</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.466003060726791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.248407862340116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.472699149574737</v>
+        <v>1.44589257829918</v>
       </c>
       <c r="C24">
-        <v>0.2534209219904966</v>
+        <v>0.2823936493941659</v>
       </c>
       <c r="D24">
-        <v>0.3719278914971653</v>
+        <v>0.3863969241602661</v>
       </c>
       <c r="E24">
-        <v>0.2785654385535707</v>
+        <v>0.2826109074985723</v>
       </c>
       <c r="F24">
-        <v>0.7563689600477375</v>
+        <v>0.7053805098187951</v>
       </c>
       <c r="G24">
-        <v>0.3784470850223727</v>
+        <v>0.3346201175121166</v>
       </c>
       <c r="H24">
-        <v>0.000379796441997815</v>
+        <v>0.0004443660381527881</v>
       </c>
       <c r="I24">
-        <v>0.001234295112746864</v>
+        <v>0.001367570591453315</v>
       </c>
       <c r="J24">
-        <v>0.3251927291346135</v>
+        <v>0.3208899950519566</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2838014679350067</v>
+        <v>0.1246633121858505</v>
       </c>
       <c r="M24">
-        <v>1.584788646587725</v>
+        <v>0.0765517736449226</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2825560819821789</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.624691162133246</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.430983483891012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.297836624476787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.210466341206313</v>
+        <v>1.193228323904634</v>
       </c>
       <c r="C25">
-        <v>0.2185931182307144</v>
+        <v>0.2349221961053871</v>
       </c>
       <c r="D25">
-        <v>0.309860058974806</v>
+        <v>0.3206429269245348</v>
       </c>
       <c r="E25">
-        <v>0.2334500510506388</v>
+        <v>0.2368615117339488</v>
       </c>
       <c r="F25">
-        <v>0.7044136738273039</v>
+        <v>0.6645894944420547</v>
       </c>
       <c r="G25">
-        <v>0.363336062101105</v>
+        <v>0.321649209697334</v>
       </c>
       <c r="H25">
-        <v>1.633703195214053E-05</v>
+        <v>1.991881398488715E-06</v>
       </c>
       <c r="I25">
-        <v>0.002090564027147579</v>
+        <v>0.001807814459751533</v>
       </c>
       <c r="J25">
-        <v>0.3260854720942064</v>
+        <v>0.328693915467241</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2390102778385312</v>
+        <v>0.1339610024936224</v>
       </c>
       <c r="M25">
-        <v>1.309526286075595</v>
+        <v>0.0757928832071233</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2387453724613522</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.339226555539312</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.400315355370012</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.291587583169459</v>
       </c>
     </row>
   </sheetData>
